--- a/2018elections/20180116-mnpoll-franken/builds/development/data/maindata.xlsx
+++ b/2018elections/20180116-mnpoll-franken/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="polls" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="120">
   <si>
     <t>year</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Do you think Al Franken should or should not have resigned from the Senate?</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
@@ -5370,8 +5373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -5927,13 +5930,13 @@
         <v>45</v>
       </c>
       <c r="B52" s="6">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="C52" s="6">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="D52" s="6">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5943,8 +5946,8 @@
       <c r="B53" s="6">
         <v>0.51</v>
       </c>
-      <c r="C53" s="6">
-        <v>0.37</v>
+      <c r="C53" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D53" s="6">
         <v>0.12</v>
